--- a/Data/scenarios/capacity_weight=1/technician_capacity_100-driving_speed_dynamic/diff_slots/window_variants-10/result-10_03_2025_pruned_9098766103_10-12.xlsx
+++ b/Data/scenarios/capacity_weight=1/technician_capacity_100-driving_speed_dynamic/diff_slots/window_variants-10/result-10_03_2025_pruned_9098766103_10-12.xlsx
@@ -1349,7 +1349,7 @@
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>9098763301</t>
+          <t>9098761268</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
@@ -1359,12 +1359,12 @@
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>2025-03-10T15:00:00+00:00</t>
+          <t>2025-03-10T14:04:00+00:00</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>2025-03-10T15:30:00+00:00</t>
+          <t>2025-03-10T14:34:00+00:00</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
@@ -1376,10 +1376,10 @@
         <v>2.4</v>
       </c>
       <c r="G15" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="H15" t="n">
-        <v>3624</v>
+        <v>4056</v>
       </c>
       <c r="I15">
         <f>IF(E15=E14,H15+I14,H15)</f>
@@ -1406,14 +1406,14 @@
       </c>
       <c r="N15" t="inlineStr">
         <is>
-          <t>10.03.2025 15:00:00-17:00:00</t>
+          <t>10.03.2025 13:00:00-15:00:00</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>9098770208</t>
+          <t>9098763301</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
@@ -1423,12 +1423,12 @@
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>2025-03-10T17:00:00+00:00</t>
+          <t>2025-03-10T15:00:00+00:00</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>2025-03-10T17:30:00+00:00</t>
+          <t>2025-03-10T15:30:00+00:00</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
@@ -1437,13 +1437,13 @@
         </is>
       </c>
       <c r="F16" t="n">
-        <v>3.6</v>
+        <v>2.4</v>
       </c>
       <c r="G16" t="n">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="H16" t="n">
-        <v>7928</v>
+        <v>996</v>
       </c>
       <c r="I16">
         <f>IF(E16=E15,H16+I15,H16)</f>
@@ -1470,7 +1470,7 @@
       </c>
       <c r="N16" t="inlineStr">
         <is>
-          <t>10.03.2025 17:00:00-19:00:00</t>
+          <t>10.03.2025 15:00:00-17:00:00</t>
         </is>
       </c>
     </row>
@@ -1487,12 +1487,12 @@
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>2025-03-10T17:38:00+00:00</t>
+          <t>2025-03-10T17:00:00+00:00</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>2025-03-10T18:08:00+00:00</t>
+          <t>2025-03-10T17:30:00+00:00</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
@@ -1501,13 +1501,13 @@
         </is>
       </c>
       <c r="F17" t="n">
-        <v>5.1</v>
+        <v>2.4</v>
       </c>
       <c r="G17" t="n">
-        <v>26</v>
+        <v>12</v>
       </c>
       <c r="H17" t="n">
-        <v>8088</v>
+        <v>498</v>
       </c>
       <c r="I17">
         <f>IF(E17=E16,H17+I16,H17)</f>
@@ -1541,7 +1541,7 @@
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>9098753407</t>
+          <t>9098748007</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
@@ -1551,12 +1551,12 @@
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>2025-03-10T10:00:00+00:00</t>
+          <t>2025-03-10T08:00:00+00:00</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>2025-03-10T10:30:00+00:00</t>
+          <t>2025-03-10T08:10:00+00:00</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
@@ -1565,13 +1565,13 @@
         </is>
       </c>
       <c r="F18" t="n">
-        <v>0.3</v>
+        <v>2.1</v>
       </c>
       <c r="G18" t="n">
         <v>0</v>
       </c>
       <c r="H18" t="n">
-        <v>2773</v>
+        <v>11757</v>
       </c>
       <c r="I18">
         <f>IF(E18=E17,H18+I17,H18)</f>
@@ -1583,22 +1583,22 @@
       </c>
       <c r="K18" t="inlineStr">
         <is>
-          <t>Montaj</t>
+          <t>Nakliye</t>
         </is>
       </c>
       <c r="L18" t="inlineStr">
         <is>
-          <t>TELEVİZYON</t>
+          <t>BULAŞIK MAKİNESİ</t>
         </is>
       </c>
       <c r="M18" t="inlineStr">
         <is>
-          <t>ELEKTRONİK-TV</t>
+          <t>YIKAYICI</t>
         </is>
       </c>
       <c r="N18" t="inlineStr">
         <is>
-          <t>10.03.2025 10:00:00-12:00:00</t>
+          <t>10.03.2025 08:00:00-10:00:00</t>
         </is>
       </c>
     </row>
@@ -1629,13 +1629,13 @@
         </is>
       </c>
       <c r="F19" t="n">
-        <v>0.3</v>
+        <v>3.6</v>
       </c>
       <c r="G19" t="n">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="H19" t="n">
-        <v>1039</v>
+        <v>9308</v>
       </c>
       <c r="I19">
         <f>IF(E19=E18,H19+I18,H19)</f>
@@ -1693,10 +1693,10 @@
         </is>
       </c>
       <c r="F20" t="n">
-        <v>0.3</v>
+        <v>3.6</v>
       </c>
       <c r="G20" t="n">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="H20" t="n">
         <v>1172</v>
@@ -1733,7 +1733,7 @@
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>9098750204</t>
+          <t>9098750078</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
@@ -1757,10 +1757,10 @@
         </is>
       </c>
       <c r="F21" t="n">
-        <v>0.6</v>
+        <v>3.9</v>
       </c>
       <c r="G21" t="n">
-        <v>4</v>
+        <v>12</v>
       </c>
       <c r="H21" t="n">
         <v>2885</v>
@@ -1780,7 +1780,7 @@
       </c>
       <c r="L21" t="inlineStr">
         <is>
-          <t>ÇAMAŞIR MAKİNESİ</t>
+          <t>KURUTMA MAKİNESİ</t>
         </is>
       </c>
       <c r="M21" t="inlineStr">
@@ -1821,10 +1821,10 @@
         </is>
       </c>
       <c r="F22" t="n">
-        <v>0.6</v>
+        <v>3.9</v>
       </c>
       <c r="G22" t="n">
-        <v>4</v>
+        <v>12</v>
       </c>
       <c r="H22" t="n">
         <v>817</v>
@@ -1885,10 +1885,10 @@
         </is>
       </c>
       <c r="F23" t="n">
-        <v>0.8999999999999999</v>
+        <v>4.2</v>
       </c>
       <c r="G23" t="n">
-        <v>6</v>
+        <v>14</v>
       </c>
       <c r="H23" t="n">
         <v>2016</v>
@@ -1925,7 +1925,7 @@
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>9098764682</t>
+          <t>9098755505</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
@@ -1935,12 +1935,12 @@
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>2025-03-10T15:00:00+00:00</t>
+          <t>2025-03-10T14:37:00+00:00</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>2025-03-10T15:10:00+00:00</t>
+          <t>2025-03-10T14:47:00+00:00</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
@@ -1949,13 +1949,13 @@
         </is>
       </c>
       <c r="F24" t="n">
-        <v>2.4</v>
+        <v>4.5</v>
       </c>
       <c r="G24" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="H24" t="n">
-        <v>9137</v>
+        <v>2628</v>
       </c>
       <c r="I24">
         <f>IF(E24=E23,H24+I23,H24)</f>
@@ -1972,24 +1972,24 @@
       </c>
       <c r="L24" t="inlineStr">
         <is>
-          <t>BUZDOLABI</t>
+          <t>KURUTMA MAKİNESİ</t>
         </is>
       </c>
       <c r="M24" t="inlineStr">
         <is>
-          <t>SOĞUTUCU</t>
+          <t>YIKAYICI</t>
         </is>
       </c>
       <c r="N24" t="inlineStr">
         <is>
-          <t>10.03.2025 15:00:00-17:00:00</t>
+          <t>10.03.2025 13:00:00-15:00:00</t>
         </is>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>9098764134</t>
+          <t>9098750204</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
@@ -1999,12 +1999,12 @@
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>2025-03-10T15:17:00+00:00</t>
+          <t>2025-03-10T14:48:00+00:00</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>2025-03-10T15:47:00+00:00</t>
+          <t>2025-03-10T14:58:00+00:00</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
@@ -2013,13 +2013,13 @@
         </is>
       </c>
       <c r="F25" t="n">
-        <v>3.6</v>
+        <v>4.5</v>
       </c>
       <c r="G25" t="n">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="H25" t="n">
-        <v>7217</v>
+        <v>1370</v>
       </c>
       <c r="I25">
         <f>IF(E25=E24,H25+I24,H25)</f>
@@ -2031,29 +2031,29 @@
       </c>
       <c r="K25" t="inlineStr">
         <is>
-          <t>Montaj</t>
+          <t>Nakliye</t>
         </is>
       </c>
       <c r="L25" t="inlineStr">
         <is>
-          <t>TELEVİZYON</t>
+          <t>ÇAMAŞIR MAKİNESİ</t>
         </is>
       </c>
       <c r="M25" t="inlineStr">
         <is>
-          <t>ELEKTRONİK-TV</t>
+          <t>YIKAYICI</t>
         </is>
       </c>
       <c r="N25" t="inlineStr">
         <is>
-          <t>10.03.2025 15:00:00-17:00:00</t>
+          <t>10.03.2025 13:00:00-15:00:00</t>
         </is>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>9098765649</t>
+          <t>9098764134</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
@@ -2063,12 +2063,12 @@
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>2025-03-10T17:00:00+00:00</t>
+          <t>2025-03-10T15:01:00+00:00</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>2025-03-10T17:10:00+00:00</t>
+          <t>2025-03-10T15:31:00+00:00</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
@@ -2080,10 +2080,10 @@
         <v>4.8</v>
       </c>
       <c r="G26" t="n">
-        <v>29</v>
+        <v>20</v>
       </c>
       <c r="H26" t="n">
-        <v>7998</v>
+        <v>3078</v>
       </c>
       <c r="I26">
         <f>IF(E26=E25,H26+I25,H26)</f>
@@ -2095,7 +2095,7 @@
       </c>
       <c r="K26" t="inlineStr">
         <is>
-          <t>Nakliye</t>
+          <t>Montaj</t>
         </is>
       </c>
       <c r="L26" t="inlineStr">
@@ -2110,14 +2110,14 @@
       </c>
       <c r="N26" t="inlineStr">
         <is>
-          <t>10.03.2025 17:00:00-19:00:00</t>
+          <t>10.03.2025 15:00:00-17:00:00</t>
         </is>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>9098748007</t>
+          <t>9098765649</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
@@ -2127,27 +2127,27 @@
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>2025-03-10T08:00:00+00:00</t>
+          <t>2025-03-10T17:00:00+00:00</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>2025-03-10T08:10:00+00:00</t>
+          <t>2025-03-10T17:10:00+00:00</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>26400</t>
+          <t>17810</t>
         </is>
       </c>
       <c r="F27" t="n">
-        <v>2.1</v>
+        <v>6</v>
       </c>
       <c r="G27" t="n">
-        <v>0</v>
+        <v>27</v>
       </c>
       <c r="H27" t="n">
-        <v>11757</v>
+        <v>7998</v>
       </c>
       <c r="I27">
         <f>IF(E27=E26,H27+I26,H27)</f>
@@ -2164,17 +2164,17 @@
       </c>
       <c r="L27" t="inlineStr">
         <is>
-          <t>BULAŞIK MAKİNESİ</t>
+          <t>TELEVİZYON</t>
         </is>
       </c>
       <c r="M27" t="inlineStr">
         <is>
-          <t>YIKAYICI</t>
+          <t>ELEKTRONİK-TV</t>
         </is>
       </c>
       <c r="N27" t="inlineStr">
         <is>
-          <t>10.03.2025 08:00:00-10:00:00</t>
+          <t>10.03.2025 17:00:00-19:00:00</t>
         </is>
       </c>
     </row>
@@ -2205,13 +2205,13 @@
         </is>
       </c>
       <c r="F28" t="n">
-        <v>3.9</v>
+        <v>0.3</v>
       </c>
       <c r="G28" t="n">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>9827</v>
+        <v>2083</v>
       </c>
       <c r="I28">
         <f>IF(E28=E27,H28+I27,H28)</f>
@@ -2245,7 +2245,7 @@
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>9098755411</t>
+          <t>9098766942</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
@@ -2255,12 +2255,12 @@
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>2025-03-10T14:51:00+00:00</t>
+          <t>2025-03-10T15:00:00+00:00</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>2025-03-10T15:01:00+00:00</t>
+          <t>2025-03-10T15:30:00+00:00</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
@@ -2269,13 +2269,13 @@
         </is>
       </c>
       <c r="F29" t="n">
-        <v>3.9</v>
+        <v>1.8</v>
       </c>
       <c r="G29" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="H29" t="n">
-        <v>1228</v>
+        <v>9603</v>
       </c>
       <c r="I29">
         <f>IF(E29=E28,H29+I28,H29)</f>
@@ -2287,29 +2287,29 @@
       </c>
       <c r="K29" t="inlineStr">
         <is>
-          <t>Nakliye</t>
+          <t>Arıza</t>
         </is>
       </c>
       <c r="L29" t="inlineStr">
         <is>
-          <t>ÇAMAŞIR MAKİNESİ</t>
+          <t>KLİMA</t>
         </is>
       </c>
       <c r="M29" t="inlineStr">
         <is>
-          <t>YIKAYICI</t>
+          <t>KLİMA</t>
         </is>
       </c>
       <c r="N29" t="inlineStr">
         <is>
-          <t>10.03.2025 13:00:00-15:00:00</t>
+          <t>10.03.2025 15:00:00-17:00:00</t>
         </is>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>9098766942</t>
+          <t>9098762003</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
@@ -2319,12 +2319,12 @@
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>2025-03-10T15:11:00+00:00</t>
+          <t>2025-03-10T15:37:00+00:00</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>2025-03-10T15:41:00+00:00</t>
+          <t>2025-03-10T16:07:00+00:00</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
@@ -2333,13 +2333,13 @@
         </is>
       </c>
       <c r="F30" t="n">
-        <v>5.699999999999999</v>
+        <v>3</v>
       </c>
       <c r="G30" t="n">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="H30" t="n">
-        <v>10265</v>
+        <v>7405</v>
       </c>
       <c r="I30">
         <f>IF(E30=E29,H30+I29,H30)</f>
@@ -2351,17 +2351,17 @@
       </c>
       <c r="K30" t="inlineStr">
         <is>
-          <t>Arıza</t>
+          <t>Montaj</t>
         </is>
       </c>
       <c r="L30" t="inlineStr">
         <is>
-          <t>KLİMA</t>
+          <t>TELEVİZYON</t>
         </is>
       </c>
       <c r="M30" t="inlineStr">
         <is>
-          <t>KLİMA</t>
+          <t>ELEKTRONİK-TV</t>
         </is>
       </c>
       <c r="N30" t="inlineStr">
@@ -2501,7 +2501,7 @@
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>9098764979</t>
+          <t>9098759869</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
@@ -2511,12 +2511,12 @@
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>2025-03-10T15:00:00+00:00</t>
+          <t>2025-03-10T13:31:00+00:00</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>2025-03-10T15:30:00+00:00</t>
+          <t>2025-03-10T14:01:00+00:00</t>
         </is>
       </c>
       <c r="E33" t="inlineStr">
@@ -2525,13 +2525,13 @@
         </is>
       </c>
       <c r="F33" t="n">
-        <v>0.6</v>
+        <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="H33" t="n">
-        <v>4574</v>
+        <v>1309</v>
       </c>
       <c r="I33">
         <f>IF(E33=E32,H33+I32,H33)</f>
@@ -2548,7 +2548,7 @@
       </c>
       <c r="L33" t="inlineStr">
         <is>
-          <t>ÇAMAŞIR MAKİNESİ</t>
+          <t>KURUTMA MAKİNESİ</t>
         </is>
       </c>
       <c r="M33" t="inlineStr">
@@ -2558,14 +2558,14 @@
       </c>
       <c r="N33" t="inlineStr">
         <is>
-          <t>10.03.2025 15:00:00-17:00:00</t>
+          <t>10.03.2025 13:00:00-15:00:00</t>
         </is>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>9098765148</t>
+          <t>9098764979</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
@@ -2575,12 +2575,12 @@
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>2025-03-10T15:38:00+00:00</t>
+          <t>2025-03-10T15:00:00+00:00</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>2025-03-10T16:08:00+00:00</t>
+          <t>2025-03-10T15:30:00+00:00</t>
         </is>
       </c>
       <c r="E34" t="inlineStr">
@@ -2589,13 +2589,13 @@
         </is>
       </c>
       <c r="F34" t="n">
-        <v>2.1</v>
+        <v>0.6</v>
       </c>
       <c r="G34" t="n">
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="H34" t="n">
-        <v>8621</v>
+        <v>3476</v>
       </c>
       <c r="I34">
         <f>IF(E34=E33,H34+I33,H34)</f>
@@ -2612,7 +2612,7 @@
       </c>
       <c r="L34" t="inlineStr">
         <is>
-          <t>BULAŞIK MAKİNESİ</t>
+          <t>ÇAMAŞIR MAKİNESİ</t>
         </is>
       </c>
       <c r="M34" t="inlineStr">
@@ -2629,7 +2629,7 @@
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>9098769185</t>
+          <t>9098765148</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
@@ -2639,12 +2639,12 @@
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>2025-03-10T17:00:00+00:00</t>
+          <t>2025-03-10T15:38:00+00:00</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>2025-03-10T17:30:00+00:00</t>
+          <t>2025-03-10T16:08:00+00:00</t>
         </is>
       </c>
       <c r="E35" t="inlineStr">
@@ -2653,13 +2653,13 @@
         </is>
       </c>
       <c r="F35" t="n">
-        <v>2.7</v>
+        <v>2.1</v>
       </c>
       <c r="G35" t="n">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="H35" t="n">
-        <v>4012</v>
+        <v>8621</v>
       </c>
       <c r="I35">
         <f>IF(E35=E34,H35+I34,H35)</f>
@@ -2676,7 +2676,7 @@
       </c>
       <c r="L35" t="inlineStr">
         <is>
-          <t>ÇAMAŞIR MAKİNESİ</t>
+          <t>BULAŞIK MAKİNESİ</t>
         </is>
       </c>
       <c r="M35" t="inlineStr">
@@ -2686,14 +2686,14 @@
       </c>
       <c r="N35" t="inlineStr">
         <is>
-          <t>10.03.2025 17:00:00-19:00:00</t>
+          <t>10.03.2025 15:00:00-17:00:00</t>
         </is>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>9098770596</t>
+          <t>9098769185</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
@@ -2703,12 +2703,12 @@
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>2025-03-10T17:34:00+00:00</t>
+          <t>2025-03-10T17:00:00+00:00</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>2025-03-10T18:04:00+00:00</t>
+          <t>2025-03-10T17:30:00+00:00</t>
         </is>
       </c>
       <c r="E36" t="inlineStr">
@@ -2717,13 +2717,13 @@
         </is>
       </c>
       <c r="F36" t="n">
-        <v>3.3</v>
+        <v>2.7</v>
       </c>
       <c r="G36" t="n">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="H36" t="n">
-        <v>4765</v>
+        <v>4012</v>
       </c>
       <c r="I36">
         <f>IF(E36=E35,H36+I35,H36)</f>
@@ -2740,7 +2740,7 @@
       </c>
       <c r="L36" t="inlineStr">
         <is>
-          <t>KURUTMA MAKİNESİ</t>
+          <t>ÇAMAŞIR MAKİNESİ</t>
         </is>
       </c>
       <c r="M36" t="inlineStr">
@@ -2757,7 +2757,7 @@
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>9098770144</t>
+          <t>9098770596</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
@@ -2767,12 +2767,12 @@
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>2025-03-10T18:06:00+00:00</t>
+          <t>2025-03-10T17:34:00+00:00</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>2025-03-10T18:36:00+00:00</t>
+          <t>2025-03-10T18:04:00+00:00</t>
         </is>
       </c>
       <c r="E37" t="inlineStr">
@@ -2781,13 +2781,13 @@
         </is>
       </c>
       <c r="F37" t="n">
-        <v>3.6</v>
+        <v>3.3</v>
       </c>
       <c r="G37" t="n">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="H37" t="n">
-        <v>2958</v>
+        <v>4765</v>
       </c>
       <c r="I37">
         <f>IF(E37=E36,H37+I36,H37)</f>
@@ -2804,12 +2804,12 @@
       </c>
       <c r="L37" t="inlineStr">
         <is>
-          <t>BUZDOLABI</t>
+          <t>KURUTMA MAKİNESİ</t>
         </is>
       </c>
       <c r="M37" t="inlineStr">
         <is>
-          <t>SOĞUTUCU</t>
+          <t>YIKAYICI</t>
         </is>
       </c>
       <c r="N37" t="inlineStr">
@@ -2821,7 +2821,7 @@
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>9098770203</t>
+          <t>9098770144</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
@@ -2831,12 +2831,12 @@
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>2025-03-10T18:37:00+00:00</t>
+          <t>2025-03-10T18:06:00+00:00</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>2025-03-10T19:07:00+00:00</t>
+          <t>2025-03-10T18:36:00+00:00</t>
         </is>
       </c>
       <c r="E38" t="inlineStr">
@@ -2848,10 +2848,10 @@
         <v>3.6</v>
       </c>
       <c r="G38" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="H38" t="n">
-        <v>1560</v>
+        <v>2958</v>
       </c>
       <c r="I38">
         <f>IF(E38=E37,H38+I37,H38)</f>
@@ -2868,12 +2868,12 @@
       </c>
       <c r="L38" t="inlineStr">
         <is>
-          <t>BULAŞIK MAKİNESİ</t>
+          <t>BUZDOLABI</t>
         </is>
       </c>
       <c r="M38" t="inlineStr">
         <is>
-          <t>YIKAYICI</t>
+          <t>SOĞUTUCU</t>
         </is>
       </c>
       <c r="N38" t="inlineStr">
@@ -2885,7 +2885,7 @@
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>9098753128</t>
+          <t>9098770203</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
@@ -2895,27 +2895,27 @@
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>2025-03-10T10:00:00+00:00</t>
+          <t>2025-03-10T18:37:00+00:00</t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>2025-03-10T10:30:00+00:00</t>
+          <t>2025-03-10T19:07:00+00:00</t>
         </is>
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>31593</t>
+          <t>31158</t>
         </is>
       </c>
       <c r="F39" t="n">
-        <v>0.6</v>
+        <v>3.6</v>
       </c>
       <c r="G39" t="n">
-        <v>0</v>
+        <v>23</v>
       </c>
       <c r="H39" t="n">
-        <v>4282</v>
+        <v>1560</v>
       </c>
       <c r="I39">
         <f>IF(E39=E38,H39+I38,H39)</f>
@@ -2927,12 +2927,12 @@
       </c>
       <c r="K39" t="inlineStr">
         <is>
-          <t>Montaj</t>
+          <t>Arıza</t>
         </is>
       </c>
       <c r="L39" t="inlineStr">
         <is>
-          <t>ÇAMAŞIR MAKİNESİ</t>
+          <t>BULAŞIK MAKİNESİ</t>
         </is>
       </c>
       <c r="M39" t="inlineStr">
@@ -2942,14 +2942,14 @@
       </c>
       <c r="N39" t="inlineStr">
         <is>
-          <t>10.03.2025 10:00:00-12:00:00</t>
+          <t>10.03.2025 17:00:00-19:00:00</t>
         </is>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>9098753218</t>
+          <t>9098753128</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
@@ -2959,12 +2959,12 @@
       </c>
       <c r="C40" t="inlineStr">
         <is>
+          <t>2025-03-10T10:00:00+00:00</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
           <t>2025-03-10T10:30:00+00:00</t>
-        </is>
-      </c>
-      <c r="D40" t="inlineStr">
-        <is>
-          <t>2025-03-10T11:00:00+00:00</t>
         </is>
       </c>
       <c r="E40" t="inlineStr">
@@ -2979,7 +2979,7 @@
         <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>4282</v>
       </c>
       <c r="I40">
         <f>IF(E40=E39,H40+I39,H40)</f>
@@ -2996,7 +2996,7 @@
       </c>
       <c r="L40" t="inlineStr">
         <is>
-          <t>KURUTMA MAKİNESİ</t>
+          <t>ÇAMAŞIR MAKİNESİ</t>
         </is>
       </c>
       <c r="M40" t="inlineStr">
@@ -3013,7 +3013,7 @@
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>9098750078</t>
+          <t>9098753218</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
@@ -3023,12 +3023,12 @@
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>2025-03-10T13:00:00+00:00</t>
+          <t>2025-03-10T10:30:00+00:00</t>
         </is>
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>2025-03-10T13:10:00+00:00</t>
+          <t>2025-03-10T11:00:00+00:00</t>
         </is>
       </c>
       <c r="E41" t="inlineStr">
@@ -3037,13 +3037,13 @@
         </is>
       </c>
       <c r="F41" t="n">
-        <v>1.2</v>
+        <v>0.6</v>
       </c>
       <c r="G41" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="H41" t="n">
-        <v>3426</v>
+        <v>0</v>
       </c>
       <c r="I41">
         <f>IF(E41=E40,H41+I40,H41)</f>
@@ -3055,7 +3055,7 @@
       </c>
       <c r="K41" t="inlineStr">
         <is>
-          <t>Nakliye</t>
+          <t>Montaj</t>
         </is>
       </c>
       <c r="L41" t="inlineStr">
@@ -3070,14 +3070,14 @@
       </c>
       <c r="N41" t="inlineStr">
         <is>
-          <t>10.03.2025 13:00:00-15:00:00</t>
+          <t>10.03.2025 10:00:00-12:00:00</t>
         </is>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>9098763156</t>
+          <t>9098753100</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
@@ -3087,12 +3087,12 @@
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>2025-03-10T15:00:00+00:00</t>
+          <t>2025-03-10T11:03:00+00:00</t>
         </is>
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>2025-03-10T15:30:00+00:00</t>
+          <t>2025-03-10T11:13:00+00:00</t>
         </is>
       </c>
       <c r="E42" t="inlineStr">
@@ -3101,13 +3101,13 @@
         </is>
       </c>
       <c r="F42" t="n">
-        <v>1.5</v>
+        <v>1.2</v>
       </c>
       <c r="G42" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="H42" t="n">
-        <v>2593</v>
+        <v>3324</v>
       </c>
       <c r="I42">
         <f>IF(E42=E41,H42+I41,H42)</f>
@@ -3119,29 +3119,29 @@
       </c>
       <c r="K42" t="inlineStr">
         <is>
-          <t>Montaj</t>
+          <t>Nakliye</t>
         </is>
       </c>
       <c r="L42" t="inlineStr">
         <is>
-          <t>BULAŞIK MAKİNESİ</t>
+          <t>TELEVİZYON</t>
         </is>
       </c>
       <c r="M42" t="inlineStr">
         <is>
-          <t>YIKAYICI</t>
+          <t>ELEKTRONİK-TV</t>
         </is>
       </c>
       <c r="N42" t="inlineStr">
         <is>
-          <t>10.03.2025 15:00:00-17:00:00</t>
+          <t>10.03.2025 10:00:00-12:00:00</t>
         </is>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>9098764291</t>
+          <t>9098763156</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
@@ -3151,12 +3151,12 @@
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>2025-03-10T15:32:00+00:00</t>
+          <t>2025-03-10T15:00:00+00:00</t>
         </is>
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>2025-03-10T16:02:00+00:00</t>
+          <t>2025-03-10T15:30:00+00:00</t>
         </is>
       </c>
       <c r="E43" t="inlineStr">
@@ -3165,13 +3165,13 @@
         </is>
       </c>
       <c r="F43" t="n">
-        <v>1.8</v>
+        <v>1.5</v>
       </c>
       <c r="G43" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="H43" t="n">
-        <v>2781</v>
+        <v>2419</v>
       </c>
       <c r="I43">
         <f>IF(E43=E42,H43+I42,H43)</f>
@@ -3205,7 +3205,7 @@
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>9098767903</t>
+          <t>9098764291</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
@@ -3215,12 +3215,12 @@
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>2025-03-10T17:00:00+00:00</t>
+          <t>2025-03-10T15:32:00+00:00</t>
         </is>
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>2025-03-10T17:30:00+00:00</t>
+          <t>2025-03-10T16:02:00+00:00</t>
         </is>
       </c>
       <c r="E44" t="inlineStr">
@@ -3229,13 +3229,13 @@
         </is>
       </c>
       <c r="F44" t="n">
-        <v>3.3</v>
+        <v>1.8</v>
       </c>
       <c r="G44" t="n">
-        <v>16</v>
+        <v>7</v>
       </c>
       <c r="H44" t="n">
-        <v>9081</v>
+        <v>2781</v>
       </c>
       <c r="I44">
         <f>IF(E44=E43,H44+I43,H44)</f>
@@ -3262,14 +3262,14 @@
       </c>
       <c r="N44" t="inlineStr">
         <is>
-          <t>10.03.2025 17:00:00-19:00:00</t>
+          <t>10.03.2025 15:00:00-17:00:00</t>
         </is>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>9098749940</t>
+          <t>9098767903</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
@@ -3279,27 +3279,27 @@
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>2025-03-10T10:00:00+00:00</t>
+          <t>2025-03-10T17:00:00+00:00</t>
         </is>
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>2025-03-10T10:25:00+00:00</t>
+          <t>2025-03-10T17:30:00+00:00</t>
         </is>
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>31847</t>
+          <t>31593</t>
         </is>
       </c>
       <c r="F45" t="n">
-        <v>1.8</v>
+        <v>3.3</v>
       </c>
       <c r="G45" t="n">
-        <v>0</v>
+        <v>16</v>
       </c>
       <c r="H45" t="n">
-        <v>10830</v>
+        <v>9081</v>
       </c>
       <c r="I45">
         <f>IF(E45=E44,H45+I44,H45)</f>
@@ -3311,29 +3311,29 @@
       </c>
       <c r="K45" t="inlineStr">
         <is>
-          <t>Arıza</t>
+          <t>Montaj</t>
         </is>
       </c>
       <c r="L45" t="inlineStr">
         <is>
-          <t>ASPİRATÖR</t>
+          <t>BULAŞIK MAKİNESİ</t>
         </is>
       </c>
       <c r="M45" t="inlineStr">
         <is>
-          <t>ISITICI-PİŞİRİCİ-KEA</t>
+          <t>YIKAYICI</t>
         </is>
       </c>
       <c r="N45" t="inlineStr">
         <is>
-          <t>10.03.2025 10:00:00-12:00:00</t>
+          <t>10.03.2025 17:00:00-19:00:00</t>
         </is>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>9098823101</t>
+          <t>9098749940</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
@@ -3343,12 +3343,12 @@
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>2025-03-10T13:00:00+00:00</t>
+          <t>2025-03-10T10:00:00+00:00</t>
         </is>
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>2025-03-10T13:30:00+00:00</t>
+          <t>2025-03-10T10:25:00+00:00</t>
         </is>
       </c>
       <c r="E46" t="inlineStr">
@@ -3357,13 +3357,13 @@
         </is>
       </c>
       <c r="F46" t="n">
-        <v>3.6</v>
+        <v>1.8</v>
       </c>
       <c r="G46" t="n">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>9998</v>
+        <v>10830</v>
       </c>
       <c r="I46">
         <f>IF(E46=E45,H46+I45,H46)</f>
@@ -3380,24 +3380,24 @@
       </c>
       <c r="L46" t="inlineStr">
         <is>
-          <t>KURUTMA MAKİNESİ</t>
+          <t>ASPİRATÖR</t>
         </is>
       </c>
       <c r="M46" t="inlineStr">
         <is>
-          <t>YIKAYICI</t>
+          <t>ISITICI-PİŞİRİCİ-KEA</t>
         </is>
       </c>
       <c r="N46" t="inlineStr">
         <is>
-          <t>10.03.2025 13:00:00-15:00:00</t>
+          <t>10.03.2025 10:00:00-12:00:00</t>
         </is>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>9098760528</t>
+          <t>9098823101</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
@@ -3407,12 +3407,12 @@
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>2025-03-10T13:31:00+00:00</t>
+          <t>2025-03-10T13:00:00+00:00</t>
         </is>
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>2025-03-10T14:01:00+00:00</t>
+          <t>2025-03-10T13:30:00+00:00</t>
         </is>
       </c>
       <c r="E47" t="inlineStr">
@@ -3421,13 +3421,13 @@
         </is>
       </c>
       <c r="F47" t="n">
-        <v>3.899999999999999</v>
+        <v>3.6</v>
       </c>
       <c r="G47" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="H47" t="n">
-        <v>1877</v>
+        <v>9998</v>
       </c>
       <c r="I47">
         <f>IF(E47=E46,H47+I46,H47)</f>
@@ -3444,7 +3444,7 @@
       </c>
       <c r="L47" t="inlineStr">
         <is>
-          <t>BULAŞIK MAKİNESİ</t>
+          <t>KURUTMA MAKİNESİ</t>
         </is>
       </c>
       <c r="M47" t="inlineStr">
@@ -3461,7 +3461,7 @@
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>9098759250</t>
+          <t>9098760528</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
@@ -3471,12 +3471,12 @@
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>2025-03-10T14:02:00+00:00</t>
+          <t>2025-03-10T13:31:00+00:00</t>
         </is>
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>2025-03-10T14:27:00+00:00</t>
+          <t>2025-03-10T14:01:00+00:00</t>
         </is>
       </c>
       <c r="E48" t="inlineStr">
@@ -3488,10 +3488,10 @@
         <v>3.899999999999999</v>
       </c>
       <c r="G48" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="H48" t="n">
-        <v>1129</v>
+        <v>1877</v>
       </c>
       <c r="I48">
         <f>IF(E48=E47,H48+I47,H48)</f>
@@ -3508,12 +3508,12 @@
       </c>
       <c r="L48" t="inlineStr">
         <is>
-          <t>FIRIN</t>
+          <t>BULAŞIK MAKİNESİ</t>
         </is>
       </c>
       <c r="M48" t="inlineStr">
         <is>
-          <t>ISITICI-PİŞİRİCİ-KEA</t>
+          <t>YIKAYICI</t>
         </is>
       </c>
       <c r="N48" t="inlineStr">
@@ -3549,13 +3549,13 @@
         </is>
       </c>
       <c r="F49" t="n">
-        <v>4.499999999999999</v>
+        <v>4.799999999999999</v>
       </c>
       <c r="G49" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="H49" t="n">
-        <v>4047</v>
+        <v>4937</v>
       </c>
       <c r="I49">
         <f>IF(E49=E48,H49+I48,H49)</f>
@@ -3613,10 +3613,10 @@
         </is>
       </c>
       <c r="F50" t="n">
-        <v>5.099999999999999</v>
+        <v>5.399999999999999</v>
       </c>
       <c r="G50" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="H50" t="n">
         <v>3722</v>
@@ -3677,10 +3677,10 @@
         </is>
       </c>
       <c r="F51" t="n">
-        <v>5.399999999999999</v>
+        <v>5.699999999999998</v>
       </c>
       <c r="G51" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="H51" t="n">
         <v>2964</v>
@@ -3741,10 +3741,10 @@
         </is>
       </c>
       <c r="F52" t="n">
-        <v>5.999999999999998</v>
+        <v>6.299999999999998</v>
       </c>
       <c r="G52" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="H52" t="n">
         <v>3930</v>
@@ -3805,10 +3805,10 @@
         </is>
       </c>
       <c r="F53" t="n">
-        <v>7.499999999999998</v>
+        <v>7.799999999999998</v>
       </c>
       <c r="G53" t="n">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="H53" t="n">
         <v>9100</v>
@@ -3845,7 +3845,7 @@
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>9098770246</t>
+          <t>9098752699</t>
         </is>
       </c>
       <c r="B54" t="inlineStr">
@@ -3855,27 +3855,27 @@
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>2025-03-10T17:49:00+00:00</t>
+          <t>2025-03-10T10:00:00+00:00</t>
         </is>
       </c>
       <c r="D54" t="inlineStr">
         <is>
-          <t>2025-03-10T18:19:00+00:00</t>
+          <t>2025-03-10T11:50:00+00:00</t>
         </is>
       </c>
       <c r="E54" t="inlineStr">
         <is>
-          <t>31847</t>
+          <t>35450</t>
         </is>
       </c>
       <c r="F54" t="n">
-        <v>8.699999999999998</v>
+        <v>0</v>
       </c>
       <c r="G54" t="n">
-        <v>39</v>
+        <v>0</v>
       </c>
       <c r="H54" t="n">
-        <v>7859</v>
+        <v>1435</v>
       </c>
       <c r="I54">
         <f>IF(E54=E53,H54+I53,H54)</f>
@@ -3887,29 +3887,29 @@
       </c>
       <c r="K54" t="inlineStr">
         <is>
-          <t>Arıza</t>
+          <t>Montaj</t>
         </is>
       </c>
       <c r="L54" t="inlineStr">
         <is>
-          <t>BUZDOLABI</t>
+          <t>KLİMA</t>
         </is>
       </c>
       <c r="M54" t="inlineStr">
         <is>
-          <t>SOĞUTUCU</t>
+          <t>KLİMA</t>
         </is>
       </c>
       <c r="N54" t="inlineStr">
         <is>
-          <t>10.03.2025 17:00:00-19:00:00</t>
+          <t>10.03.2025 10:00:00-12:00:00</t>
         </is>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>9098752699</t>
+          <t>9098753918</t>
         </is>
       </c>
       <c r="B55" t="inlineStr">
@@ -3919,12 +3919,12 @@
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>2025-03-10T10:00:00+00:00</t>
+          <t>2025-03-10T13:00:00+00:00</t>
         </is>
       </c>
       <c r="D55" t="inlineStr">
         <is>
-          <t>2025-03-10T11:50:00+00:00</t>
+          <t>2025-03-10T13:10:00+00:00</t>
         </is>
       </c>
       <c r="E55" t="inlineStr">
@@ -3936,10 +3936,10 @@
         <v>0</v>
       </c>
       <c r="G55" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H55" t="n">
-        <v>1435</v>
+        <v>1053</v>
       </c>
       <c r="I55">
         <f>IF(E55=E54,H55+I54,H55)</f>
@@ -3951,7 +3951,7 @@
       </c>
       <c r="K55" t="inlineStr">
         <is>
-          <t>Montaj</t>
+          <t>Keşif</t>
         </is>
       </c>
       <c r="L55" t="inlineStr">
@@ -3966,7 +3966,7 @@
       </c>
       <c r="N55" t="inlineStr">
         <is>
-          <t>10.03.2025 10:00:00-12:00:00</t>
+          <t>10.03.2025 13:00:00-15:00:00</t>
         </is>
       </c>
     </row>
@@ -3983,12 +3983,12 @@
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>2025-03-10T13:00:00+00:00</t>
+          <t>2025-03-10T13:12:00+00:00</t>
         </is>
       </c>
       <c r="D56" t="inlineStr">
         <is>
-          <t>2025-03-10T14:50:00+00:00</t>
+          <t>2025-03-10T15:02:00+00:00</t>
         </is>
       </c>
       <c r="E56" t="inlineStr">
@@ -4000,10 +4000,10 @@
         <v>0.3</v>
       </c>
       <c r="G56" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H56" t="n">
-        <v>2149</v>
+        <v>2139</v>
       </c>
       <c r="I56">
         <f>IF(E56=E55,H56+I55,H56)</f>
@@ -4037,7 +4037,7 @@
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>9098753918</t>
+          <t>9098750500</t>
         </is>
       </c>
       <c r="B57" t="inlineStr">
@@ -4047,27 +4047,27 @@
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>2025-03-10T14:52:00+00:00</t>
+          <t>2025-03-10T10:00:00+00:00</t>
         </is>
       </c>
       <c r="D57" t="inlineStr">
         <is>
-          <t>2025-03-10T15:02:00+00:00</t>
+          <t>2025-03-10T10:30:00+00:00</t>
         </is>
       </c>
       <c r="E57" t="inlineStr">
         <is>
-          <t>35450</t>
+          <t>35768</t>
         </is>
       </c>
       <c r="F57" t="n">
-        <v>0.6</v>
+        <v>0</v>
       </c>
       <c r="G57" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="H57" t="n">
-        <v>2139</v>
+        <v>1293</v>
       </c>
       <c r="I57">
         <f>IF(E57=E56,H57+I56,H57)</f>
@@ -4079,29 +4079,29 @@
       </c>
       <c r="K57" t="inlineStr">
         <is>
-          <t>Keşif</t>
+          <t>Montaj</t>
         </is>
       </c>
       <c r="L57" t="inlineStr">
         <is>
-          <t>KLİMA</t>
+          <t>ÇAMAŞIR MAKİNESİ</t>
         </is>
       </c>
       <c r="M57" t="inlineStr">
         <is>
-          <t>KLİMA</t>
+          <t>YIKAYICI</t>
         </is>
       </c>
       <c r="N57" t="inlineStr">
         <is>
-          <t>10.03.2025 13:00:00-15:00:00</t>
+          <t>10.03.2025 10:00:00-12:00:00</t>
         </is>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>9098750695</t>
+          <t>9098748608</t>
         </is>
       </c>
       <c r="B58" t="inlineStr">
@@ -4111,12 +4111,12 @@
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>2025-03-10T10:00:00+00:00</t>
+          <t>2025-03-10T10:31:00+00:00</t>
         </is>
       </c>
       <c r="D58" t="inlineStr">
         <is>
-          <t>2025-03-10T10:30:00+00:00</t>
+          <t>2025-03-10T11:01:00+00:00</t>
         </is>
       </c>
       <c r="E58" t="inlineStr">
@@ -4125,13 +4125,13 @@
         </is>
       </c>
       <c r="F58" t="n">
-        <v>0</v>
+        <v>0.3</v>
       </c>
       <c r="G58" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H58" t="n">
-        <v>1293</v>
+        <v>1707</v>
       </c>
       <c r="I58">
         <f>IF(E58=E57,H58+I57,H58)</f>
@@ -4165,7 +4165,7 @@
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>9098750500</t>
+          <t>9098748816</t>
         </is>
       </c>
       <c r="B59" t="inlineStr">
@@ -4175,12 +4175,12 @@
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>2025-03-10T10:30:00+00:00</t>
+          <t>2025-03-10T11:03:00+00:00</t>
         </is>
       </c>
       <c r="D59" t="inlineStr">
         <is>
-          <t>2025-03-10T11:00:00+00:00</t>
+          <t>2025-03-10T11:33:00+00:00</t>
         </is>
       </c>
       <c r="E59" t="inlineStr">
@@ -4189,13 +4189,13 @@
         </is>
       </c>
       <c r="F59" t="n">
-        <v>0</v>
+        <v>0.6</v>
       </c>
       <c r="G59" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="H59" t="n">
-        <v>0</v>
+        <v>2383</v>
       </c>
       <c r="I59">
         <f>IF(E59=E58,H59+I58,H59)</f>
@@ -4239,12 +4239,12 @@
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>2025-03-10T11:00:00+00:00</t>
+          <t>2025-03-10T11:33:00+00:00</t>
         </is>
       </c>
       <c r="D60" t="inlineStr">
         <is>
-          <t>2025-03-10T11:30:00+00:00</t>
+          <t>2025-03-10T12:03:00+00:00</t>
         </is>
       </c>
       <c r="E60" t="inlineStr">
@@ -4253,13 +4253,13 @@
         </is>
       </c>
       <c r="F60" t="n">
-        <v>0</v>
+        <v>0.6</v>
       </c>
       <c r="G60" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="H60" t="n">
-        <v>573</v>
+        <v>710</v>
       </c>
       <c r="I60">
         <f>IF(E60=E59,H60+I59,H60)</f>
@@ -4293,7 +4293,7 @@
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>9098753100</t>
+          <t>9098764682</t>
         </is>
       </c>
       <c r="B61" t="inlineStr">
@@ -4303,12 +4303,12 @@
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>2025-03-10T11:30:00+00:00</t>
+          <t>2025-03-10T15:00:00+00:00</t>
         </is>
       </c>
       <c r="D61" t="inlineStr">
         <is>
-          <t>2025-03-10T11:40:00+00:00</t>
+          <t>2025-03-10T15:10:00+00:00</t>
         </is>
       </c>
       <c r="E61" t="inlineStr">
@@ -4317,13 +4317,13 @@
         </is>
       </c>
       <c r="F61" t="n">
-        <v>0</v>
+        <v>2.4</v>
       </c>
       <c r="G61" t="n">
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="H61" t="n">
-        <v>420</v>
+        <v>10553</v>
       </c>
       <c r="I61">
         <f>IF(E61=E60,H61+I60,H61)</f>
@@ -4340,24 +4340,24 @@
       </c>
       <c r="L61" t="inlineStr">
         <is>
-          <t>TELEVİZYON</t>
+          <t>BUZDOLABI</t>
         </is>
       </c>
       <c r="M61" t="inlineStr">
         <is>
-          <t>ELEKTRONİK-TV</t>
+          <t>SOĞUTUCU</t>
         </is>
       </c>
       <c r="N61" t="inlineStr">
         <is>
-          <t>10.03.2025 10:00:00-12:00:00</t>
+          <t>10.03.2025 15:00:00-17:00:00</t>
         </is>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>9098752073</t>
+          <t>9098758736</t>
         </is>
       </c>
       <c r="B62" t="inlineStr">
@@ -4367,12 +4367,12 @@
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>2025-03-10T11:41:00+00:00</t>
+          <t>2025-03-10T17:00:00+00:00</t>
         </is>
       </c>
       <c r="D62" t="inlineStr">
         <is>
-          <t>2025-03-10T12:11:00+00:00</t>
+          <t>2025-03-10T17:30:00+00:00</t>
         </is>
       </c>
       <c r="E62" t="inlineStr">
@@ -4381,13 +4381,13 @@
         </is>
       </c>
       <c r="F62" t="n">
-        <v>0.3</v>
+        <v>2.7</v>
       </c>
       <c r="G62" t="n">
-        <v>1</v>
+        <v>14</v>
       </c>
       <c r="H62" t="n">
-        <v>1638</v>
+        <v>1664</v>
       </c>
       <c r="I62">
         <f>IF(E62=E61,H62+I61,H62)</f>
@@ -4414,14 +4414,14 @@
       </c>
       <c r="N62" t="inlineStr">
         <is>
-          <t>10.03.2025 10:00:00-12:00:00</t>
+          <t>10.03.2025 17:00:00-19:00:00</t>
         </is>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>9098758736</t>
+          <t>9098749376</t>
         </is>
       </c>
       <c r="B63" t="inlineStr">
@@ -4431,27 +4431,27 @@
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>2025-03-10T17:00:00+00:00</t>
+          <t>2025-03-10T10:00:00+00:00</t>
         </is>
       </c>
       <c r="D63" t="inlineStr">
         <is>
-          <t>2025-03-10T17:30:00+00:00</t>
+          <t>2025-03-10T10:30:00+00:00</t>
         </is>
       </c>
       <c r="E63" t="inlineStr">
         <is>
-          <t>35768</t>
+          <t>35770</t>
         </is>
       </c>
       <c r="F63" t="n">
-        <v>2.4</v>
+        <v>0</v>
       </c>
       <c r="G63" t="n">
-        <v>13</v>
+        <v>0</v>
       </c>
       <c r="H63" t="n">
-        <v>12060</v>
+        <v>1484</v>
       </c>
       <c r="I63">
         <f>IF(E63=E62,H63+I62,H63)</f>
@@ -4468,7 +4468,7 @@
       </c>
       <c r="L63" t="inlineStr">
         <is>
-          <t>BULAŞIK MAKİNESİ</t>
+          <t>KURUTMA MAKİNESİ</t>
         </is>
       </c>
       <c r="M63" t="inlineStr">
@@ -4478,14 +4478,14 @@
       </c>
       <c r="N63" t="inlineStr">
         <is>
-          <t>10.03.2025 17:00:00-19:00:00</t>
+          <t>10.03.2025 10:00:00-12:00:00</t>
         </is>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>9098748816</t>
+          <t>9098752073</t>
         </is>
       </c>
       <c r="B64" t="inlineStr">
@@ -4495,12 +4495,12 @@
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>2025-03-10T10:00:00+00:00</t>
+          <t>2025-03-10T10:30:00+00:00</t>
         </is>
       </c>
       <c r="D64" t="inlineStr">
         <is>
-          <t>2025-03-10T10:30:00+00:00</t>
+          <t>2025-03-10T11:00:00+00:00</t>
         </is>
       </c>
       <c r="E64" t="inlineStr">
@@ -4509,13 +4509,13 @@
         </is>
       </c>
       <c r="F64" t="n">
-        <v>0.3</v>
+        <v>0</v>
       </c>
       <c r="G64" t="n">
         <v>0</v>
       </c>
       <c r="H64" t="n">
-        <v>2266</v>
+        <v>173</v>
       </c>
       <c r="I64">
         <f>IF(E64=E63,H64+I63,H64)</f>
@@ -4532,7 +4532,7 @@
       </c>
       <c r="L64" t="inlineStr">
         <is>
-          <t>ÇAMAŞIR MAKİNESİ</t>
+          <t>BULAŞIK MAKİNESİ</t>
         </is>
       </c>
       <c r="M64" t="inlineStr">
@@ -4549,7 +4549,7 @@
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>9098748608</t>
+          <t>9098758570</t>
         </is>
       </c>
       <c r="B65" t="inlineStr">
@@ -4559,12 +4559,12 @@
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>2025-03-10T10:32:00+00:00</t>
+          <t>2025-03-10T13:00:00+00:00</t>
         </is>
       </c>
       <c r="D65" t="inlineStr">
         <is>
-          <t>2025-03-10T11:02:00+00:00</t>
+          <t>2025-03-10T13:30:00+00:00</t>
         </is>
       </c>
       <c r="E65" t="inlineStr">
@@ -4573,13 +4573,13 @@
         </is>
       </c>
       <c r="F65" t="n">
-        <v>0.6</v>
+        <v>2.1</v>
       </c>
       <c r="G65" t="n">
-        <v>2</v>
+        <v>12</v>
       </c>
       <c r="H65" t="n">
-        <v>2383</v>
+        <v>12233</v>
       </c>
       <c r="I65">
         <f>IF(E65=E64,H65+I64,H65)</f>
@@ -4596,7 +4596,7 @@
       </c>
       <c r="L65" t="inlineStr">
         <is>
-          <t>KURUTMA MAKİNESİ</t>
+          <t>BULAŞIK MAKİNESİ</t>
         </is>
       </c>
       <c r="M65" t="inlineStr">
@@ -4606,14 +4606,14 @@
       </c>
       <c r="N65" t="inlineStr">
         <is>
-          <t>10.03.2025 10:00:00-12:00:00</t>
+          <t>10.03.2025 13:00:00-15:00:00</t>
         </is>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>9098758570</t>
+          <t>9098762001</t>
         </is>
       </c>
       <c r="B66" t="inlineStr">
@@ -4623,12 +4623,12 @@
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t>2025-03-10T13:00:00+00:00</t>
+          <t>2025-03-10T13:37:00+00:00</t>
         </is>
       </c>
       <c r="D66" t="inlineStr">
         <is>
-          <t>2025-03-10T13:30:00+00:00</t>
+          <t>2025-03-10T14:07:00+00:00</t>
         </is>
       </c>
       <c r="E66" t="inlineStr">
@@ -4637,13 +4637,13 @@
         </is>
       </c>
       <c r="F66" t="n">
-        <v>2.7</v>
+        <v>3.3</v>
       </c>
       <c r="G66" t="n">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="H66" t="n">
-        <v>12371</v>
+        <v>7932</v>
       </c>
       <c r="I66">
         <f>IF(E66=E65,H66+I65,H66)</f>
@@ -4655,17 +4655,17 @@
       </c>
       <c r="K66" t="inlineStr">
         <is>
-          <t>Montaj</t>
+          <t>Özel İstek</t>
         </is>
       </c>
       <c r="L66" t="inlineStr">
         <is>
-          <t>BULAŞIK MAKİNESİ</t>
+          <t>BUZDOLABI</t>
         </is>
       </c>
       <c r="M66" t="inlineStr">
         <is>
-          <t>YIKAYICI</t>
+          <t>SOĞUTUCU</t>
         </is>
       </c>
       <c r="N66" t="inlineStr">
@@ -4677,7 +4677,7 @@
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>9098762001</t>
+          <t>9098754915</t>
         </is>
       </c>
       <c r="B67" t="inlineStr">
@@ -4687,12 +4687,12 @@
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t>2025-03-10T13:37:00+00:00</t>
+          <t>2025-03-10T15:00:00+00:00</t>
         </is>
       </c>
       <c r="D67" t="inlineStr">
         <is>
-          <t>2025-03-10T14:07:00+00:00</t>
+          <t>2025-03-10T15:30:00+00:00</t>
         </is>
       </c>
       <c r="E67" t="inlineStr">
@@ -4701,13 +4701,13 @@
         </is>
       </c>
       <c r="F67" t="n">
-        <v>3.9</v>
+        <v>3.6</v>
       </c>
       <c r="G67" t="n">
         <v>21</v>
       </c>
       <c r="H67" t="n">
-        <v>7932</v>
+        <v>2305</v>
       </c>
       <c r="I67">
         <f>IF(E67=E66,H67+I66,H67)</f>
@@ -4724,24 +4724,24 @@
       </c>
       <c r="L67" t="inlineStr">
         <is>
-          <t>BUZDOLABI</t>
+          <t>BULAŞIK MAKİNESİ</t>
         </is>
       </c>
       <c r="M67" t="inlineStr">
         <is>
-          <t>SOĞUTUCU</t>
+          <t>YIKAYICI</t>
         </is>
       </c>
       <c r="N67" t="inlineStr">
         <is>
-          <t>10.03.2025 13:00:00-15:00:00</t>
+          <t>10.03.2025 15:00:00-17:00:00</t>
         </is>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>9098754915</t>
+          <t>9098750566</t>
         </is>
       </c>
       <c r="B68" t="inlineStr">
@@ -4751,27 +4751,27 @@
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t>2025-03-10T15:00:00+00:00</t>
+          <t>2025-03-10T10:00:00+00:00</t>
         </is>
       </c>
       <c r="D68" t="inlineStr">
         <is>
-          <t>2025-03-10T15:30:00+00:00</t>
+          <t>2025-03-10T10:30:00+00:00</t>
         </is>
       </c>
       <c r="E68" t="inlineStr">
         <is>
-          <t>35770</t>
+          <t>36889</t>
         </is>
       </c>
       <c r="F68" t="n">
-        <v>4.2</v>
+        <v>0</v>
       </c>
       <c r="G68" t="n">
-        <v>23</v>
+        <v>0</v>
       </c>
       <c r="H68" t="n">
-        <v>2305</v>
+        <v>1436</v>
       </c>
       <c r="I68">
         <f>IF(E68=E67,H68+I67,H68)</f>
@@ -4783,29 +4783,29 @@
       </c>
       <c r="K68" t="inlineStr">
         <is>
-          <t>Özel İstek</t>
+          <t>Arıza</t>
         </is>
       </c>
       <c r="L68" t="inlineStr">
         <is>
-          <t>BULAŞIK MAKİNESİ</t>
+          <t>BUZDOLABI</t>
         </is>
       </c>
       <c r="M68" t="inlineStr">
         <is>
-          <t>YIKAYICI</t>
+          <t>SOĞUTUCU</t>
         </is>
       </c>
       <c r="N68" t="inlineStr">
         <is>
-          <t>10.03.2025 15:00:00-17:00:00</t>
+          <t>10.03.2025 10:00:00-12:00:00</t>
         </is>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>9098749898</t>
+          <t>9098751684</t>
         </is>
       </c>
       <c r="B69" t="inlineStr">
@@ -4815,12 +4815,12 @@
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t>2025-03-10T10:00:00+00:00</t>
+          <t>2025-03-10T10:31:00+00:00</t>
         </is>
       </c>
       <c r="D69" t="inlineStr">
         <is>
-          <t>2025-03-10T10:30:00+00:00</t>
+          <t>2025-03-10T11:01:00+00:00</t>
         </is>
       </c>
       <c r="E69" t="inlineStr">
@@ -4829,13 +4829,13 @@
         </is>
       </c>
       <c r="F69" t="n">
-        <v>0</v>
+        <v>0.3</v>
       </c>
       <c r="G69" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H69" t="n">
-        <v>819</v>
+        <v>1720</v>
       </c>
       <c r="I69">
         <f>IF(E69=E68,H69+I68,H69)</f>
@@ -4869,7 +4869,7 @@
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>9098750566</t>
+          <t>9098749898</t>
         </is>
       </c>
       <c r="B70" t="inlineStr">
@@ -4879,12 +4879,12 @@
       </c>
       <c r="C70" t="inlineStr">
         <is>
-          <t>2025-03-10T10:30:00+00:00</t>
+          <t>2025-03-10T11:03:00+00:00</t>
         </is>
       </c>
       <c r="D70" t="inlineStr">
         <is>
-          <t>2025-03-10T11:00:00+00:00</t>
+          <t>2025-03-10T11:33:00+00:00</t>
         </is>
       </c>
       <c r="E70" t="inlineStr">
@@ -4893,13 +4893,13 @@
         </is>
       </c>
       <c r="F70" t="n">
-        <v>0</v>
+        <v>0.6</v>
       </c>
       <c r="G70" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="H70" t="n">
-        <v>934</v>
+        <v>2348</v>
       </c>
       <c r="I70">
         <f>IF(E70=E69,H70+I69,H70)</f>
@@ -4933,7 +4933,7 @@
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>9098751684</t>
+          <t>9098759250</t>
         </is>
       </c>
       <c r="B71" t="inlineStr">
@@ -4943,12 +4943,12 @@
       </c>
       <c r="C71" t="inlineStr">
         <is>
-          <t>2025-03-10T11:01:00+00:00</t>
+          <t>2025-03-10T13:00:00+00:00</t>
         </is>
       </c>
       <c r="D71" t="inlineStr">
         <is>
-          <t>2025-03-10T11:31:00+00:00</t>
+          <t>2025-03-10T13:25:00+00:00</t>
         </is>
       </c>
       <c r="E71" t="inlineStr">
@@ -4957,13 +4957,13 @@
         </is>
       </c>
       <c r="F71" t="n">
-        <v>0.3</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="G71" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="H71" t="n">
-        <v>1720</v>
+        <v>2604</v>
       </c>
       <c r="I71">
         <f>IF(E71=E70,H71+I70,H71)</f>
@@ -4980,24 +4980,24 @@
       </c>
       <c r="L71" t="inlineStr">
         <is>
-          <t>BUZDOLABI</t>
+          <t>FIRIN</t>
         </is>
       </c>
       <c r="M71" t="inlineStr">
         <is>
-          <t>SOĞUTUCU</t>
+          <t>ISITICI-PİŞİRİCİ-KEA</t>
         </is>
       </c>
       <c r="N71" t="inlineStr">
         <is>
-          <t>10.03.2025 10:00:00-12:00:00</t>
+          <t>10.03.2025 13:00:00-15:00:00</t>
         </is>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>9098759869</t>
+          <t>9098759965</t>
         </is>
       </c>
       <c r="B72" t="inlineStr">
@@ -5007,12 +5007,12 @@
       </c>
       <c r="C72" t="inlineStr">
         <is>
-          <t>2025-03-10T13:00:00+00:00</t>
+          <t>2025-03-10T13:26:00+00:00</t>
         </is>
       </c>
       <c r="D72" t="inlineStr">
         <is>
-          <t>2025-03-10T13:30:00+00:00</t>
+          <t>2025-03-10T13:56:00+00:00</t>
         </is>
       </c>
       <c r="E72" t="inlineStr">
@@ -5021,13 +5021,13 @@
         </is>
       </c>
       <c r="F72" t="n">
-        <v>0.3</v>
+        <v>1.2</v>
       </c>
       <c r="G72" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="H72" t="n">
-        <v>440</v>
+        <v>1815</v>
       </c>
       <c r="I72">
         <f>IF(E72=E71,H72+I71,H72)</f>
@@ -5044,12 +5044,12 @@
       </c>
       <c r="L72" t="inlineStr">
         <is>
-          <t>KURUTMA MAKİNESİ</t>
+          <t>BUZDOLABI</t>
         </is>
       </c>
       <c r="M72" t="inlineStr">
         <is>
-          <t>YIKAYICI</t>
+          <t>SOĞUTUCU</t>
         </is>
       </c>
       <c r="N72" t="inlineStr">
@@ -5061,7 +5061,7 @@
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>9098759965</t>
+          <t>9098765683</t>
         </is>
       </c>
       <c r="B73" t="inlineStr">
@@ -5071,12 +5071,12 @@
       </c>
       <c r="C73" t="inlineStr">
         <is>
-          <t>2025-03-10T13:30:00+00:00</t>
+          <t>2025-03-10T15:00:00+00:00</t>
         </is>
       </c>
       <c r="D73" t="inlineStr">
         <is>
-          <t>2025-03-10T14:00:00+00:00</t>
+          <t>2025-03-10T15:30:00+00:00</t>
         </is>
       </c>
       <c r="E73" t="inlineStr">
@@ -5085,13 +5085,13 @@
         </is>
       </c>
       <c r="F73" t="n">
-        <v>0.3</v>
+        <v>2.1</v>
       </c>
       <c r="G73" t="n">
-        <v>1</v>
+        <v>11</v>
       </c>
       <c r="H73" t="n">
-        <v>889</v>
+        <v>5657</v>
       </c>
       <c r="I73">
         <f>IF(E73=E72,H73+I72,H73)</f>
@@ -5108,7 +5108,7 @@
       </c>
       <c r="L73" t="inlineStr">
         <is>
-          <t>BUZDOLABI</t>
+          <t>DERİN DONDURUCU</t>
         </is>
       </c>
       <c r="M73" t="inlineStr">
@@ -5118,14 +5118,14 @@
       </c>
       <c r="N73" t="inlineStr">
         <is>
-          <t>10.03.2025 13:00:00-15:00:00</t>
+          <t>10.03.2025 15:00:00-17:00:00</t>
         </is>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>9098761268</t>
+          <t>9098764950</t>
         </is>
       </c>
       <c r="B74" t="inlineStr">
@@ -5135,12 +5135,12 @@
       </c>
       <c r="C74" t="inlineStr">
         <is>
-          <t>2025-03-10T14:03:00+00:00</t>
+          <t>2025-03-10T15:32:00+00:00</t>
         </is>
       </c>
       <c r="D74" t="inlineStr">
         <is>
-          <t>2025-03-10T14:33:00+00:00</t>
+          <t>2025-03-10T16:02:00+00:00</t>
         </is>
       </c>
       <c r="E74" t="inlineStr">
@@ -5149,13 +5149,13 @@
         </is>
       </c>
       <c r="F74" t="n">
-        <v>0.6</v>
+        <v>2.399999999999999</v>
       </c>
       <c r="G74" t="n">
-        <v>4</v>
+        <v>13</v>
       </c>
       <c r="H74" t="n">
-        <v>3184</v>
+        <v>2684</v>
       </c>
       <c r="I74">
         <f>IF(E74=E73,H74+I73,H74)</f>
@@ -5172,7 +5172,7 @@
       </c>
       <c r="L74" t="inlineStr">
         <is>
-          <t>ÇAMAŞIR MAKİNESİ</t>
+          <t>BULAŞIK MAKİNESİ</t>
         </is>
       </c>
       <c r="M74" t="inlineStr">
@@ -5182,14 +5182,14 @@
       </c>
       <c r="N74" t="inlineStr">
         <is>
-          <t>10.03.2025 13:00:00-15:00:00</t>
+          <t>10.03.2025 15:00:00-17:00:00</t>
         </is>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>9098765683</t>
+          <t>9098770570</t>
         </is>
       </c>
       <c r="B75" t="inlineStr">
@@ -5199,12 +5199,12 @@
       </c>
       <c r="C75" t="inlineStr">
         <is>
-          <t>2025-03-10T15:00:00+00:00</t>
+          <t>2025-03-10T17:00:00+00:00</t>
         </is>
       </c>
       <c r="D75" t="inlineStr">
         <is>
-          <t>2025-03-10T15:30:00+00:00</t>
+          <t>2025-03-10T17:30:00+00:00</t>
         </is>
       </c>
       <c r="E75" t="inlineStr">
@@ -5213,13 +5213,13 @@
         </is>
       </c>
       <c r="F75" t="n">
-        <v>0.8999999999999999</v>
+        <v>4.799999999999999</v>
       </c>
       <c r="G75" t="n">
-        <v>6</v>
+        <v>26</v>
       </c>
       <c r="H75" t="n">
-        <v>2554</v>
+        <v>13278</v>
       </c>
       <c r="I75">
         <f>IF(E75=E74,H75+I74,H75)</f>
@@ -5236,7 +5236,7 @@
       </c>
       <c r="L75" t="inlineStr">
         <is>
-          <t>DERİN DONDURUCU</t>
+          <t>BUZDOLABI</t>
         </is>
       </c>
       <c r="M75" t="inlineStr">
@@ -5246,14 +5246,14 @@
       </c>
       <c r="N75" t="inlineStr">
         <is>
-          <t>10.03.2025 15:00:00-17:00:00</t>
+          <t>10.03.2025 17:00:00-19:00:00</t>
         </is>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>9098764950</t>
+          <t>9098770246</t>
         </is>
       </c>
       <c r="B76" t="inlineStr">
@@ -5263,12 +5263,12 @@
       </c>
       <c r="C76" t="inlineStr">
         <is>
-          <t>2025-03-10T15:32:00+00:00</t>
+          <t>2025-03-10T17:30:00+00:00</t>
         </is>
       </c>
       <c r="D76" t="inlineStr">
         <is>
-          <t>2025-03-10T16:02:00+00:00</t>
+          <t>2025-03-10T18:00:00+00:00</t>
         </is>
       </c>
       <c r="E76" t="inlineStr">
@@ -5277,13 +5277,13 @@
         </is>
       </c>
       <c r="F76" t="n">
-        <v>1.2</v>
+        <v>4.799999999999999</v>
       </c>
       <c r="G76" t="n">
-        <v>8</v>
+        <v>26</v>
       </c>
       <c r="H76" t="n">
-        <v>2684</v>
+        <v>954</v>
       </c>
       <c r="I76">
         <f>IF(E76=E75,H76+I75,H76)</f>
@@ -5300,24 +5300,24 @@
       </c>
       <c r="L76" t="inlineStr">
         <is>
-          <t>BULAŞIK MAKİNESİ</t>
+          <t>BUZDOLABI</t>
         </is>
       </c>
       <c r="M76" t="inlineStr">
         <is>
-          <t>YIKAYICI</t>
+          <t>SOĞUTUCU</t>
         </is>
       </c>
       <c r="N76" t="inlineStr">
         <is>
-          <t>10.03.2025 15:00:00-17:00:00</t>
+          <t>10.03.2025 17:00:00-19:00:00</t>
         </is>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>9098770570</t>
+          <t>9098770208</t>
         </is>
       </c>
       <c r="B77" t="inlineStr">
@@ -5327,12 +5327,12 @@
       </c>
       <c r="C77" t="inlineStr">
         <is>
-          <t>2025-03-10T17:00:00+00:00</t>
+          <t>2025-03-10T18:07:00+00:00</t>
         </is>
       </c>
       <c r="D77" t="inlineStr">
         <is>
-          <t>2025-03-10T17:30:00+00:00</t>
+          <t>2025-03-10T18:37:00+00:00</t>
         </is>
       </c>
       <c r="E77" t="inlineStr">
@@ -5341,13 +5341,13 @@
         </is>
       </c>
       <c r="F77" t="n">
-        <v>3.6</v>
+        <v>5.999999999999999</v>
       </c>
       <c r="G77" t="n">
-        <v>21</v>
+        <v>33</v>
       </c>
       <c r="H77" t="n">
-        <v>13278</v>
+        <v>7801</v>
       </c>
       <c r="I77">
         <f>IF(E77=E76,H77+I76,H77)</f>
@@ -5364,12 +5364,12 @@
       </c>
       <c r="L77" t="inlineStr">
         <is>
-          <t>BUZDOLABI</t>
+          <t>ÇAMAŞIR MAKİNESİ</t>
         </is>
       </c>
       <c r="M77" t="inlineStr">
         <is>
-          <t>SOĞUTUCU</t>
+          <t>YIKAYICI</t>
         </is>
       </c>
       <c r="N77" t="inlineStr">
@@ -5381,7 +5381,7 @@
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>9098751581</t>
+          <t>9098753407</t>
         </is>
       </c>
       <c r="B78" t="inlineStr">
@@ -5411,7 +5411,7 @@
         <v>0</v>
       </c>
       <c r="H78" t="n">
-        <v>1903</v>
+        <v>2773</v>
       </c>
       <c r="I78">
         <f>IF(E78=E77,H78+I77,H78)</f>
@@ -5445,7 +5445,7 @@
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>9098762003</t>
+          <t>9098751581</t>
         </is>
       </c>
       <c r="B79" t="inlineStr">
@@ -5455,12 +5455,12 @@
       </c>
       <c r="C79" t="inlineStr">
         <is>
-          <t>2025-03-10T15:00:00+00:00</t>
+          <t>2025-03-10T10:31:00+00:00</t>
         </is>
       </c>
       <c r="D79" t="inlineStr">
         <is>
-          <t>2025-03-10T15:30:00+00:00</t>
+          <t>2025-03-10T11:01:00+00:00</t>
         </is>
       </c>
       <c r="E79" t="inlineStr">
@@ -5469,13 +5469,13 @@
         </is>
       </c>
       <c r="F79" t="n">
-        <v>0.8999999999999999</v>
+        <v>0.3</v>
       </c>
       <c r="G79" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="H79" t="n">
-        <v>4072</v>
+        <v>1088</v>
       </c>
       <c r="I79">
         <f>IF(E79=E78,H79+I78,H79)</f>
@@ -5502,7 +5502,7 @@
       </c>
       <c r="N79" t="inlineStr">
         <is>
-          <t>10.03.2025 15:00:00-17:00:00</t>
+          <t>10.03.2025 10:00:00-12:00:00</t>
         </is>
       </c>
     </row>
@@ -5539,7 +5539,7 @@
         <v>11</v>
       </c>
       <c r="H80" t="n">
-        <v>7405</v>
+        <v>10783</v>
       </c>
       <c r="I80">
         <f>IF(E80=E79,H80+I79,H80)</f>
@@ -5701,7 +5701,7 @@
     <row r="83">
       <c r="A83" t="inlineStr">
         <is>
-          <t>9098766103</t>
+          <t>9098750695</t>
         </is>
       </c>
       <c r="B83" t="inlineStr">
@@ -5725,13 +5725,13 @@
         </is>
       </c>
       <c r="F83" t="n">
-        <v>6.3</v>
+        <v>0</v>
       </c>
       <c r="G83" t="n">
         <v>0</v>
       </c>
       <c r="H83" t="n">
-        <v>34960</v>
+        <v>1293</v>
       </c>
       <c r="I83">
         <f>IF(E83=E82,H83+I82,H83)</f>
@@ -5765,7 +5765,7 @@
     <row r="84">
       <c r="A84" t="inlineStr">
         <is>
-          <t>9098749376</t>
+          <t>9098766103</t>
         </is>
       </c>
       <c r="B84" t="inlineStr">
@@ -5789,13 +5789,13 @@
         </is>
       </c>
       <c r="F84" t="n">
-        <v>12.9</v>
+        <v>6.6</v>
       </c>
       <c r="G84" t="n">
         <v>36</v>
       </c>
       <c r="H84" t="n">
-        <v>36304</v>
+        <v>36051</v>
       </c>
       <c r="I84">
         <f>IF(E84=E83,H84+I83,H84)</f>
@@ -5853,13 +5853,13 @@
         </is>
       </c>
       <c r="F85" t="n">
-        <v>15</v>
+        <v>13.5</v>
       </c>
       <c r="G85" t="n">
-        <v>47</v>
+        <v>73</v>
       </c>
       <c r="H85" t="n">
-        <v>11636</v>
+        <v>37765</v>
       </c>
       <c r="I85">
         <f>IF(E85=E84,H85+I84,H85)</f>
@@ -5893,7 +5893,7 @@
     <row r="86">
       <c r="A86" t="inlineStr">
         <is>
-          <t>9098755505</t>
+          <t>9098755411</t>
         </is>
       </c>
       <c r="B86" t="inlineStr">
@@ -5917,13 +5917,13 @@
         </is>
       </c>
       <c r="F86" t="n">
-        <v>0</v>
+        <v>0.3</v>
       </c>
       <c r="G86" t="n">
         <v>0</v>
       </c>
       <c r="H86" t="n">
-        <v>1484</v>
+        <v>2393</v>
       </c>
       <c r="I86">
         <f>IF(E86=E85,H86+I85,H86)</f>
@@ -5940,7 +5940,7 @@
       </c>
       <c r="L86" t="inlineStr">
         <is>
-          <t>KURUTMA MAKİNESİ</t>
+          <t>ÇAMAŞIR MAKİNESİ</t>
         </is>
       </c>
       <c r="M86" t="inlineStr">
@@ -6747,13 +6747,13 @@
         <v>3</v>
       </c>
       <c r="D5" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E5" t="n">
         <v>1</v>
       </c>
       <c r="F5" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G5" t="n">
         <v>0</v>
@@ -6769,16 +6769,16 @@
         </is>
       </c>
       <c r="B6" t="n">
+        <v>1</v>
+      </c>
+      <c r="C6" t="n">
         <v>0</v>
       </c>
-      <c r="C6" t="n">
+      <c r="D6" t="n">
+        <v>7</v>
+      </c>
+      <c r="E6" t="n">
         <v>1</v>
-      </c>
-      <c r="D6" t="n">
-        <v>5</v>
-      </c>
-      <c r="E6" t="n">
-        <v>2</v>
       </c>
       <c r="F6" t="n">
         <v>1</v>
@@ -6797,16 +6797,16 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
         <v>0</v>
       </c>
       <c r="D7" t="n">
+        <v>1</v>
+      </c>
+      <c r="E7" t="n">
         <v>2</v>
-      </c>
-      <c r="E7" t="n">
-        <v>1</v>
       </c>
       <c r="F7" t="n">
         <v>0</v>
@@ -6831,7 +6831,7 @@
         <v>1</v>
       </c>
       <c r="D8" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E8" t="n">
         <v>2</v>
@@ -6856,10 +6856,10 @@
         <v>0</v>
       </c>
       <c r="C9" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D9" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E9" t="n">
         <v>2</v>
@@ -6887,13 +6887,13 @@
         <v>1</v>
       </c>
       <c r="D10" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E10" t="n">
         <v>4</v>
       </c>
       <c r="F10" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G10" t="n">
         <v>0</v>
@@ -6940,13 +6940,13 @@
         <v>0</v>
       </c>
       <c r="C12" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D12" t="n">
         <v>0</v>
       </c>
       <c r="E12" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F12" t="n">
         <v>1</v>
@@ -6999,13 +6999,13 @@
         <v>3</v>
       </c>
       <c r="D14" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E14" t="n">
         <v>2</v>
       </c>
       <c r="F14" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="G14" t="n">
         <v>0</v>
@@ -7024,13 +7024,13 @@
         <v>0</v>
       </c>
       <c r="C15" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D15" t="n">
         <v>0</v>
       </c>
       <c r="E15" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F15" t="n">
         <v>1</v>
@@ -7212,13 +7212,13 @@
         <v>90</v>
       </c>
       <c r="D25" t="n">
-        <v>60</v>
+        <v>90</v>
       </c>
       <c r="E25" t="n">
         <v>30</v>
       </c>
       <c r="F25" t="n">
-        <v>60</v>
+        <v>30</v>
       </c>
       <c r="G25" t="n">
         <v>0</v>
@@ -7234,16 +7234,16 @@
         </is>
       </c>
       <c r="B26" t="n">
+        <v>10</v>
+      </c>
+      <c r="C26" t="n">
         <v>0</v>
       </c>
-      <c r="C26" t="n">
+      <c r="D26" t="n">
+        <v>110</v>
+      </c>
+      <c r="E26" t="n">
         <v>30</v>
-      </c>
-      <c r="D26" t="n">
-        <v>90</v>
-      </c>
-      <c r="E26" t="n">
-        <v>40</v>
       </c>
       <c r="F26" t="n">
         <v>10</v>
@@ -7262,16 +7262,16 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="C27" t="n">
         <v>0</v>
       </c>
       <c r="D27" t="n">
-        <v>120</v>
+        <v>110</v>
       </c>
       <c r="E27" t="n">
-        <v>30</v>
+        <v>60</v>
       </c>
       <c r="F27" t="n">
         <v>0</v>
@@ -7296,7 +7296,7 @@
         <v>30</v>
       </c>
       <c r="D28" t="n">
-        <v>30</v>
+        <v>60</v>
       </c>
       <c r="E28" t="n">
         <v>60</v>
@@ -7321,10 +7321,10 @@
         <v>0</v>
       </c>
       <c r="C29" t="n">
-        <v>60</v>
+        <v>70</v>
       </c>
       <c r="D29" t="n">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="E29" t="n">
         <v>60</v>
@@ -7352,13 +7352,13 @@
         <v>25</v>
       </c>
       <c r="D30" t="n">
-        <v>85</v>
+        <v>60</v>
       </c>
       <c r="E30" t="n">
         <v>115</v>
       </c>
       <c r="F30" t="n">
-        <v>60</v>
+        <v>30</v>
       </c>
       <c r="G30" t="n">
         <v>0</v>
@@ -7405,13 +7405,13 @@
         <v>0</v>
       </c>
       <c r="C32" t="n">
-        <v>130</v>
+        <v>120</v>
       </c>
       <c r="D32" t="n">
         <v>0</v>
       </c>
       <c r="E32" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="F32" t="n">
         <v>30</v>
@@ -7464,13 +7464,13 @@
         <v>90</v>
       </c>
       <c r="D34" t="n">
-        <v>90</v>
+        <v>55</v>
       </c>
       <c r="E34" t="n">
         <v>60</v>
       </c>
       <c r="F34" t="n">
-        <v>30</v>
+        <v>90</v>
       </c>
       <c r="G34" t="n">
         <v>0</v>
@@ -7489,13 +7489,13 @@
         <v>0</v>
       </c>
       <c r="C35" t="n">
-        <v>30</v>
+        <v>60</v>
       </c>
       <c r="D35" t="n">
         <v>0</v>
       </c>
       <c r="E35" t="n">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="F35" t="n">
         <v>30</v>
@@ -8110,11 +8110,11 @@
         <v>11</v>
       </c>
       <c r="E18" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>0.2</t>
+          <t>0.1</t>
         </is>
       </c>
     </row>
@@ -8894,11 +8894,11 @@
         <v>3</v>
       </c>
       <c r="E46" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F46" t="inlineStr">
         <is>
-          <t>0.3</t>
+          <t>0.7</t>
         </is>
       </c>
     </row>
@@ -9482,11 +9482,11 @@
         <v>11</v>
       </c>
       <c r="E67" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F67" t="inlineStr">
         <is>
-          <t>0.2</t>
+          <t>0.1</t>
         </is>
       </c>
     </row>
@@ -10266,11 +10266,11 @@
         <v>11</v>
       </c>
       <c r="E95" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F95" t="inlineStr">
         <is>
-          <t>0.2</t>
+          <t>0.1</t>
         </is>
       </c>
     </row>
@@ -11050,11 +11050,11 @@
         <v>11</v>
       </c>
       <c r="E123" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F123" t="inlineStr">
         <is>
-          <t>0.2</t>
+          <t>0.1</t>
         </is>
       </c>
     </row>
@@ -11834,11 +11834,11 @@
         <v>11</v>
       </c>
       <c r="E151" s="2" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F151" s="2" t="inlineStr">
         <is>
-          <t>0.2</t>
+          <t>0.1</t>
         </is>
       </c>
     </row>
@@ -14382,11 +14382,11 @@
         <v>3</v>
       </c>
       <c r="E242" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F242" t="inlineStr">
         <is>
-          <t>0.3</t>
+          <t>0.7</t>
         </is>
       </c>
     </row>
@@ -14970,11 +14970,11 @@
         <v>11</v>
       </c>
       <c r="E263" s="2" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F263" s="2" t="inlineStr">
         <is>
-          <t>0.2</t>
+          <t>0.1</t>
         </is>
       </c>
     </row>
@@ -17322,11 +17322,11 @@
         <v>11</v>
       </c>
       <c r="E347" s="2" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F347" s="2" t="inlineStr">
         <is>
-          <t>0.2</t>
+          <t>0.1</t>
         </is>
       </c>
     </row>
@@ -17518,11 +17518,11 @@
         <v>11</v>
       </c>
       <c r="E354" s="2" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F354" s="2" t="inlineStr">
         <is>
-          <t>0.2</t>
+          <t>0.1</t>
         </is>
       </c>
     </row>
@@ -17686,11 +17686,11 @@
         <v>4</v>
       </c>
       <c r="E360" s="2" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F360" s="2" t="inlineStr">
         <is>
-          <t>0.0</t>
+          <t>0.2</t>
         </is>
       </c>
     </row>
@@ -18078,11 +18078,11 @@
         <v>4</v>
       </c>
       <c r="E374" s="2" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F374" s="2" t="inlineStr">
         <is>
-          <t>0.2</t>
+          <t>0.0</t>
         </is>
       </c>
     </row>
@@ -20066,11 +20066,11 @@
         <v>11</v>
       </c>
       <c r="E445" s="2" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F445" s="2" t="inlineStr">
         <is>
-          <t>0.2</t>
+          <t>0.1</t>
         </is>
       </c>
     </row>
@@ -20458,11 +20458,11 @@
         <v>11</v>
       </c>
       <c r="E459" s="2" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F459" s="2" t="inlineStr">
         <is>
-          <t>0.2</t>
+          <t>0.1</t>
         </is>
       </c>
     </row>
@@ -20850,11 +20850,11 @@
         <v>3</v>
       </c>
       <c r="E473" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F473" t="inlineStr">
         <is>
-          <t>0.3</t>
+          <t>0.7</t>
         </is>
       </c>
     </row>
@@ -21018,11 +21018,11 @@
         <v>11</v>
       </c>
       <c r="E479" s="2" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F479" s="2" t="inlineStr">
         <is>
-          <t>0.0</t>
+          <t>0.1</t>
         </is>
       </c>
     </row>
@@ -21046,11 +21046,11 @@
         <v>11</v>
       </c>
       <c r="E480" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F480" t="inlineStr">
         <is>
-          <t>0.2</t>
+          <t>0.1</t>
         </is>
       </c>
     </row>
@@ -21438,11 +21438,11 @@
         <v>11</v>
       </c>
       <c r="E494" s="2" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F494" s="2" t="inlineStr">
         <is>
-          <t>0.2</t>
+          <t>0.1</t>
         </is>
       </c>
     </row>
@@ -21634,11 +21634,11 @@
         <v>3</v>
       </c>
       <c r="E501" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F501" t="inlineStr">
         <is>
-          <t>0.3</t>
+          <t>0.7</t>
         </is>
       </c>
     </row>
@@ -22026,11 +22026,11 @@
         <v>11</v>
       </c>
       <c r="E515" s="2" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F515" s="2" t="inlineStr">
         <is>
-          <t>0.2</t>
+          <t>0.1</t>
         </is>
       </c>
     </row>
@@ -22810,11 +22810,11 @@
         <v>3</v>
       </c>
       <c r="E543" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F543" t="inlineStr">
         <is>
-          <t>0.3</t>
+          <t>0.7</t>
         </is>
       </c>
     </row>
@@ -23762,11 +23762,11 @@
         <v>4</v>
       </c>
       <c r="E577" s="2" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F577" s="2" t="inlineStr">
         <is>
-          <t>0.2</t>
+          <t>0.0</t>
         </is>
       </c>
     </row>
@@ -24350,7 +24350,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>34167</v>
+        <v>20077</v>
       </c>
     </row>
     <row r="4">
@@ -24360,7 +24360,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>35054</v>
+        <v>43029</v>
       </c>
     </row>
     <row r="5">
@@ -24370,7 +24370,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>33077</v>
+        <v>19091</v>
       </c>
     </row>
     <row r="6">
@@ -24380,7 +24380,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>28080</v>
+        <v>28291</v>
       </c>
     </row>
     <row r="7">
@@ -24390,7 +24390,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>22163</v>
+        <v>21887</v>
       </c>
     </row>
     <row r="8">
@@ -24400,7 +24400,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>55456</v>
+        <v>47358</v>
       </c>
     </row>
     <row r="9">
@@ -24410,7 +24410,7 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>5723</v>
+        <v>4627</v>
       </c>
     </row>
     <row r="10">
@@ -24420,7 +24420,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>15984</v>
+        <v>18310</v>
       </c>
     </row>
     <row r="11">
@@ -24430,7 +24430,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>27257</v>
+        <v>24127</v>
       </c>
     </row>
     <row r="12">
@@ -24440,7 +24440,7 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>26502</v>
+        <v>40297</v>
       </c>
     </row>
     <row r="13">
@@ -24450,7 +24450,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>13380</v>
+        <v>14644</v>
       </c>
     </row>
     <row r="14">
@@ -24470,7 +24470,7 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>82900</v>
+        <v>75109</v>
       </c>
     </row>
     <row r="16">
@@ -24480,7 +24480,7 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>1484</v>
+        <v>2393</v>
       </c>
     </row>
   </sheetData>
@@ -24494,7 +24494,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B8"/>
+  <dimension ref="A1:B9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -24521,7 +24521,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>-26702044.35555557</v>
+        <v>-26034907.96666666</v>
       </c>
     </row>
     <row r="3">
@@ -24531,7 +24531,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>84999911.19999999</v>
+        <v>84999918.7</v>
       </c>
     </row>
     <row r="4">
@@ -24541,7 +24541,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>9584640</v>
+        <v>9506816</v>
       </c>
     </row>
     <row r="5">
@@ -24571,7 +24571,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.3055555555555555</v>
+        <v>0.3166666666666667</v>
       </c>
     </row>
     <row r="8">
@@ -24582,6 +24582,16 @@
       </c>
       <c r="B8" t="n">
         <v>1</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>distance_cost</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>81.3</v>
       </c>
     </row>
   </sheetData>
